--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="RUN_MANAGER" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="79">
   <si>
     <t>Scenario_ID</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>setupProjectInPlatform</t>
-  </si>
-  <si>
-    <t>This test case creates a new project and add site details</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -59,15 +53,6 @@
     <t>SC2</t>
   </si>
   <si>
-    <t>createNewSite</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Created new site</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -80,69 +65,24 @@
     <t/>
   </si>
   <si>
-    <t>Global Feeds</t>
-  </si>
-  <si>
     <t>Site_Name</t>
   </si>
   <si>
-    <t>Fashion</t>
-  </si>
-  <si>
-    <t>Dataview_Template</t>
-  </si>
-  <si>
-    <t>Intermediate</t>
-  </si>
-  <si>
-    <t>Product_Attrribute</t>
-  </si>
-  <si>
     <t>brand</t>
   </si>
   <si>
     <t>Rule_Box</t>
   </si>
   <si>
-    <t>uppercase to human</t>
-  </si>
-  <si>
-    <t>remove html tags</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Apply_Rulebox_At</t>
   </si>
   <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>addRemoveHTMLTagsRuleBox</t>
-  </si>
-  <si>
     <t>SC4</t>
   </si>
   <si>
-    <t>To validate the remove html tag rule box is working as expected</t>
-  </si>
-  <si>
-    <t>To validate upper-case-to-human rule box is working as expected</t>
-  </si>
-  <si>
-    <t>addUppercaseToHumanRuleBox</t>
-  </si>
-  <si>
     <t>SC5</t>
   </si>
   <si>
-    <t>To validate various menu options available at different hirrearchies on the platfrom</t>
-  </si>
-  <si>
     <t>validatePlatformOptions</t>
   </si>
   <si>
@@ -156,6 +96,162 @@
   </si>
   <si>
     <t>Site</t>
+  </si>
+  <si>
+    <t>addExports</t>
+  </si>
+  <si>
+    <t>Export_Channel</t>
+  </si>
+  <si>
+    <t>Custom_Template</t>
+  </si>
+  <si>
+    <t>addMonitors</t>
+  </si>
+  <si>
+    <t>To validate if monitors are setup</t>
+  </si>
+  <si>
+    <t>Monitor_At</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Error_Event</t>
+  </si>
+  <si>
+    <t>IMPORT</t>
+  </si>
+  <si>
+    <t>NO_CHANGE_IN_DATA_SOURCE</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>PERCENTAGE_OF_ADDED_ITEMS</t>
+  </si>
+  <si>
+    <t>To validate different options available on the platform within the hierrarchy</t>
+  </si>
+  <si>
+    <t>validateDataSourceSetup</t>
+  </si>
+  <si>
+    <t>To validate the Data sources setup on the platform</t>
+  </si>
+  <si>
+    <t>Data_Source</t>
+  </si>
+  <si>
+    <t>Feed URL</t>
+  </si>
+  <si>
+    <t>addRuleBoxes</t>
+  </si>
+  <si>
+    <t>Product_Attribute</t>
+  </si>
+  <si>
+    <t>REMOVE_HTML_TAGS</t>
+  </si>
+  <si>
+    <t>EXPORT</t>
+  </si>
+  <si>
+    <t>Test Automation - SMOKE</t>
+  </si>
+  <si>
+    <t>Import Data Sources Smoke Check</t>
+  </si>
+  <si>
+    <t>FP - Test Automation Export</t>
+  </si>
+  <si>
+    <t>product id</t>
+  </si>
+  <si>
+    <t>SET_VALUE_IF_EMPTY</t>
+  </si>
+  <si>
+    <t>Rule_Transformation_Option</t>
+  </si>
+  <si>
+    <t>Convert Uppercase</t>
+  </si>
+  <si>
+    <t>CAPITALIZE_WORDS</t>
+  </si>
+  <si>
+    <t>setupExportTemplate</t>
+  </si>
+  <si>
+    <t>dataViewTests</t>
+  </si>
+  <si>
+    <t>Services Demo</t>
+  </si>
+  <si>
+    <t>Sample Test Site</t>
+  </si>
+  <si>
+    <t>product description</t>
+  </si>
+  <si>
+    <t>Tests to validate Data Exports Functionalities</t>
+  </si>
+  <si>
+    <t>Export_Destination</t>
+  </si>
+  <si>
+    <t>EXPORT_DATASOURCE</t>
+  </si>
+  <si>
+    <t>Tests to validate Data Sources Functionalities</t>
+  </si>
+  <si>
+    <t>Tests to validate Monitor Functionalities</t>
+  </si>
+  <si>
+    <t>Tests to validate Data View Functionalities</t>
+  </si>
+  <si>
+    <t>Attribute_Value</t>
+  </si>
+  <si>
+    <t>Replace_With</t>
+  </si>
+  <si>
+    <t>product url</t>
+  </si>
+  <si>
+    <t>MAP_REPLACE</t>
+  </si>
+  <si>
+    <t>flipkart</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>REMOVE_WHITESPACES</t>
+  </si>
+  <si>
+    <t>product name</t>
+  </si>
+  <si>
+    <t>To validate rule boxes on the Date view module</t>
+  </si>
+  <si>
+    <t>To validate Exports A/B Setup</t>
   </si>
 </sst>
 </file>
@@ -543,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,99 +678,99 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -685,27 +781,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="32" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" customWidth="1"/>
+    <col min="17" max="17" width="31.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -716,284 +820,1005 @@
         <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pup-platform-automation\pup-qa-pilot-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0146B1D1-298F-4144-A8B4-1186603C3061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF03B47-619F-47F0-A67F-971567F3D93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="90">
   <si>
     <t>Scenario_ID</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>STOP_PROCESSING</t>
+  </si>
+  <si>
+    <t>edge</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -669,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
@@ -689,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>10</v>
@@ -729,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
@@ -1789,9 +1792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1885,10 +1888,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>44</v>
@@ -1950,7 +1953,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>46</v>
@@ -2071,10 +2074,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>47</v>
@@ -2133,10 +2136,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>45</v>
@@ -3001,10 +3004,10 @@
         <v>84</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>47</v>

--- a/src/test/resources/testdata/TestData.xlsx
+++ b/src/test/resources/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pup-platform-automation\pup-qa-pilot-automation\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF03B47-619F-47F0-A67F-971567F3D93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4E3C9D-276F-482B-AE63-A0B8D400721A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1794,7 +1794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4042,6 +4042,11 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="please make a valid selection" promptTitle="browser selection" prompt="select the browser from the dropdown list" sqref="C2:C20" xr:uid="{170F0B8C-354D-49CD-900E-8B48951A9305}">
+      <formula1>"chrome,edge,firefox,safari"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
